--- a/Sprint0/09-09-2021/03_Product_Backlog.xlsx
+++ b/Sprint0/09-09-2021/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\09-09-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58002187-FCBB-4B0A-BA40-A273E7FDD90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAC3AD-B57A-414B-8E9A-E5C91B4B9E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>

--- a/Sprint0/09-09-2021/03_Product_Backlog.xlsx
+++ b/Sprint0/09-09-2021/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\09-09-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FAC3AD-B57A-414B-8E9A-E5C91B4B9E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A78A21-A93A-4441-BF36-796B31962974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
   <si>
     <t>Increment Plan</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Gestión de Configuración</t>
   </si>
   <si>
-    <t>Historias de usuario a desarrollar en el Sprint 1</t>
-  </si>
-  <si>
     <t>DevOps (Scrumboard y tareas)</t>
   </si>
   <si>
@@ -363,6 +360,12 @@
   </si>
   <si>
     <t>Archivo terminado</t>
+  </si>
+  <si>
+    <t>Historias de usuario a desarrollar en el Sprint 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historias de usurio actualizadas ald ia 9 </t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2490,7 @@
         <v>41738</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="12">
         <f>(F4/E4)</f>
@@ -2701,7 +2704,7 @@
         <v>41710</v>
       </c>
       <c r="I16" s="57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="27">
         <v>1</v>
@@ -2738,7 +2741,7 @@
         <v>41710</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J17" s="27">
         <v>1</v>
@@ -2775,7 +2778,7 @@
         <v>41710</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="27">
         <v>1</v>
@@ -2812,7 +2815,7 @@
         <v>41710</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="27">
         <v>1</v>
@@ -2849,7 +2852,7 @@
         <v>41710</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="27">
         <v>1</v>
@@ -2886,7 +2889,7 @@
         <v>41710</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21" s="27">
         <v>1</v>
@@ -2923,7 +2926,7 @@
         <v>41710</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" s="27">
         <v>1</v>
@@ -2960,7 +2963,7 @@
         <v>41710</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" s="27">
         <v>1</v>
@@ -3405,7 +3408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3924,7 +3927,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>30</v>
@@ -3953,7 +3956,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="51" t="s">
         <v>30</v>
@@ -3979,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>62</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>63</v>
       </c>
       <c r="I7" s="51" t="s">
         <v>30</v>
@@ -3992,8 +3995,8 @@
       <c r="A8" s="48">
         <v>4</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>37</v>
+      <c r="B8" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>31</v>
@@ -4010,7 +4013,9 @@
       <c r="G8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="51"/>
+      <c r="H8" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="I8" s="51" t="s">
         <v>30</v>
       </c>
@@ -4020,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>28</v>
@@ -4047,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="48" t="s">
         <v>31</v>
@@ -4065,10 +4070,10 @@
         <v>29</v>
       </c>
       <c r="H10" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="49" t="s">
         <v>65</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -4076,7 +4081,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>28</v>
@@ -4094,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="49" t="s">
         <v>30</v>
@@ -4187,7 +4192,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>28</v>
@@ -4205,7 +4210,7 @@
         <v>29</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="49" t="s">
         <v>30</v>
@@ -4216,7 +4221,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="48" t="s">
         <v>12</v>
@@ -4243,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="48" t="s">
         <v>12</v>
@@ -4270,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>12</v>
@@ -4297,7 +4302,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="48" t="s">
         <v>12</v>
@@ -4324,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>12</v>
@@ -4351,7 +4356,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>12</v>
@@ -4378,7 +4383,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>12</v>
@@ -4405,7 +4410,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="48" t="s">
         <v>12</v>
@@ -4432,7 +4437,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="48" t="s">
         <v>12</v>
